--- a/APM files/125037633/b.xlsx
+++ b/APM files/125037633/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dev\workspace\APM files\125037633\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3485FE36-3ECD-4CFB-A5AD-EEB8CD3BC3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE1705-DED9-493E-A0D0-654754BE1DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1920" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3188" yWindow="2280" windowWidth="17010" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,22 +357,22 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>55082803</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>72281564</v>
       </c>
